--- a/Señales_Control.xlsx
+++ b/Señales_Control.xlsx
@@ -614,7 +614,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Señales_Control.xlsx
+++ b/Señales_Control.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Instrucción</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>ADD X19,X20,X21</t>
+  </si>
+  <si>
+    <t>RegWrSrc</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -611,29 +617,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,40 +651,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="22">
+      <c r="P1" s="22">
         <v>1.0010001E+31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -691,37 +701,40 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>42</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.1010011011E+31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -735,37 +748,40 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.01101001111111E+31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -779,37 +795,40 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="22">
+      <c r="P4" s="22">
         <v>1.111100001E+31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -823,34 +842,37 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -860,35 +882,38 @@
       <c r="C6" s="2">
         <v>11010011011</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -902,31 +927,34 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>7</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -940,31 +968,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -978,31 +1009,34 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,35 +1046,38 @@
       <c r="C10" s="2">
         <v>11010110000</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1051,34 +1088,37 @@
         <v>11111000000</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
         <v>1</v>
       </c>
       <c r="H11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1089,34 +1129,37 @@
         <v>11111000010</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1126,20 +1169,20 @@
       <c r="C13" s="7">
         <v>1001000100</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="9">
         <v>0</v>
@@ -1151,10 +1194,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1164,23 +1210,23 @@
       <c r="C14" s="7">
         <v>1101000100</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -1189,10 +1235,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1202,20 +1251,20 @@
       <c r="C15" s="7">
         <v>1011000100</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -1227,10 +1276,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1240,23 +1292,23 @@
       <c r="C16" s="7">
         <v>1111000100</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -1265,10 +1317,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1278,36 +1333,39 @@
       <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
         <v>3</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
       <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>8</v>
       </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
       <c r="J17" s="13">
         <v>0</v>
       </c>
-      <c r="K17" s="14">
-        <v>1</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1317,35 +1375,38 @@
       <c r="C18" s="10">
         <v>10110100</v>
       </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
         <v>3</v>
       </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
       <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>8</v>
       </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
       <c r="J18" s="13">
         <v>0</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1355,35 +1416,38 @@
       <c r="C19" s="10">
         <v>10110101</v>
       </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
         <v>3</v>
       </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
       <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
         <v>8</v>
       </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
       <c r="J19" s="13">
         <v>0</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
@@ -1393,35 +1457,38 @@
       <c r="C20" s="16">
         <v>100101</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
       <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
         <v>8</v>
       </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
       <c r="J20" s="16">
         <v>0</v>
       </c>
-      <c r="K20" s="17">
-        <v>1</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
@@ -1431,36 +1498,39 @@
       <c r="C21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
+      <c r="D21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
         <v>2</v>
       </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
       <c r="H21" s="16">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
         <v>8</v>
       </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
       <c r="J21" s="16">
         <v>0</v>
       </c>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
-      <c r="L21" s="17" t="s">
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="G12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
